--- a/Linear Regression.xlsx
+++ b/Linear Regression.xlsx
@@ -4,22 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11475" windowHeight="4695" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11475" windowHeight="4695" tabRatio="874"/>
   </bookViews>
   <sheets>
     <sheet name="LinearRegression - Content" sheetId="2" r:id="rId1"/>
     <sheet name="Assumption" sheetId="1" r:id="rId2"/>
     <sheet name="Parameter Estimation" sheetId="3" r:id="rId3"/>
-    <sheet name="Least Squares Approach" sheetId="4" r:id="rId4"/>
-    <sheet name="Sigma2 of error" sheetId="5" r:id="rId5"/>
-    <sheet name="Why error" sheetId="6" r:id="rId6"/>
+    <sheet name="BLUE" sheetId="11" r:id="rId4"/>
+    <sheet name="CostFunc(LeastSquares)" sheetId="4" r:id="rId5"/>
+    <sheet name="Optimization Approach" sheetId="7" r:id="rId6"/>
+    <sheet name="R2" sheetId="12" r:id="rId7"/>
+    <sheet name="Significant Test" sheetId="13" r:id="rId8"/>
+    <sheet name="Regularization" sheetId="8" r:id="rId9"/>
+    <sheet name="Ridge &amp; Lasso" sheetId="10" r:id="rId10"/>
+    <sheet name="Misc" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="172">
   <si>
     <t>一元线性回归模型的基本假定</t>
   </si>
@@ -232,9 +237,6 @@
   </si>
   <si>
     <t>对于随机误差项的正态性假设，根据中心极限定理，如果仅包括源生性的随机干扰，当样本容量趋于无穷大时，都是满足的。如果包括衍生的随机误差，即使样本容量趋于无穷大，正态性假设也经常是不满足的。</t>
-  </si>
-  <si>
-    <t>假设6：随机误差项服从零均值、同方差的正态分布。</t>
   </si>
   <si>
     <r>
@@ -1696,12 +1698,2113 @@
     <t>引入随机干扰项的原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>我们在线性回归中要求得最佳拟合直线</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˆ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>∙</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实质上是求预估值</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˆ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与观测值</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之间的误差</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最小（最好是没有误差）的情况下</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的值。而前面提到过，</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是服从参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的正态分布，那最好是均值</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和方差</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>趋近于0或越小越好。即:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Size1"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Size1"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˆ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>趋近于0或越小越好</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Size1"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Size1"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˆ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Size1"/>
+        <family val="2"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>ˆ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Main"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>趋近于0或越小越好。</t>
+    </r>
+  </si>
+  <si>
+    <t>而这与最前面构建的平方形式损失函数本质上是等价的。</t>
+  </si>
+  <si>
+    <t>假设6：随机误差项服从零均值、同方差的正态分布。（决定了损失函数的形式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从他们的时间复杂度可以看出，当n比较大时，用梯度下降法时间上更有优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的大，吴恩达给出的建议是，当n &lt; 10000时，可以考虑Normal Equation，当n &gt;10000时，使用梯度下降更好。</t>
+  </si>
+  <si>
+    <t>过拟合和正则化</t>
+  </si>
+  <si>
+    <t>欠拟合（under-fitting, high bias）：模型没有很好地捕捉数据特征，不能很好地拟合数据</t>
+  </si>
+  <si>
+    <t>过拟合（over-fitting, high varience) ：</t>
+  </si>
+  <si>
+    <t>过拟合的表现：对于训练集，预测非常准确，对于新数据预测很差，也就是泛化能力差（generalize）。</t>
+  </si>
+  <si>
+    <t>如何避免过拟合，有两种方式：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减少特征维度，有两种方法：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        手动选择特征</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        通过模型选择</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    缺点：损失了部分信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    正则化（regularization）：保留所有特征，但是减小参数θ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    的值，对于具有很多特征，每个特征都对预测值有贡献的问题，有很好的效果。</t>
+  </si>
+  <si>
+    <t>正则化是一种避免过拟合的手段，其思想是通过在损失函数中添加参数“惩罚”，控制参数幅度，限制参数搜索空间。从而达到以下目的：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    简化预测函数（hypothesis) hθ(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    减小过拟合倾向</t>
+  </si>
+  <si>
+    <t>正则化后，损失函数可以写为下式：可以看到这里的正则化项从1开始，没有对 θ0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进行约束。在实际操作时，加上 θ0 对结果的影响也很小。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--------------------- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者：骁勇_simppy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">来源：CSDN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原文：https://blog.csdn.net/zhao_cq/article/details/80808296 </t>
+  </si>
+  <si>
+    <t>版权声明：本文为博主原创文章，转载请附上博文链接！</t>
+  </si>
+  <si>
+    <r>
+      <t>这将损失函数分成了两个部分：拟合训练集、减小参数值。这两部分的权重通过</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 来调节，因此如何挑选合适的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13.75"/>
+        <color theme="1"/>
+        <rFont val="MathJax_Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 也是十分重要的，有相关算法后续会介绍。</t>
+    </r>
+  </si>
+  <si>
+    <t>岭回归是一种专用于共线性数据分析的有偏估计回归方法，实质上是一种改良的最小二乘估计法，通过放弃最小二乘法的无偏性，以损失部分信息、降低精度为代价，获得回归系数更为符合实际、更可靠的回归方法，对病态数据的耐受性远远强于最小二乘法。</t>
+  </si>
+  <si>
+    <t>岭回归分析法是从根本上消除复共线性影响的统计方法。岭回归模型通过在相关矩阵中引入一个很小的岭参数K（1&gt;K&gt;0），并将它加到主对角线元素上，从而降低参数的最小二乘估计中复共线特征向量的影响，减小复共线变量系数最小二乘估计的方法，以保证参数估计更接近真实情况。岭回归分析将所有的变量引入模型中，比逐步回归分析提供更多的信息。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者：spearhead_cai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原文：https://blog.csdn.net/lc013/article/details/55002463 </t>
+  </si>
+  <si>
+    <t>正则化（Regularization）</t>
+  </si>
+  <si>
+    <r>
+      <t>机器学习中几乎都可以看到损失函数后面会添加一个额外项，常用的额外项一般有两种，一般英文称作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ℓ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-norm和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ℓ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-norm，中文称作L1正则化和L2正则化，或者L1范数和L2范数。</t>
+    </r>
+  </si>
+  <si>
+    <t>L1正则化和L2正则化可以看做是损失函数的惩罚项。</t>
+  </si>
+  <si>
+    <t>L1正则化是指权值向量w中各个元素的绝对值之和，通常表示为||w||1</t>
+  </si>
+  <si>
+    <t>L2正则化是指权值向量w中各个元素的平方和然后再求平方根（可以看到Ridge回归的L2正则化项有平方符号），通常表示为||w||2</t>
+  </si>
+  <si>
+    <t>一般都会在正则化项之前添加一个系数，Python中用α</t>
+  </si>
+  <si>
+    <t>表示，一些文章也用λ</t>
+  </si>
+  <si>
+    <t>表示。这个系数需要用户指定。</t>
+  </si>
+  <si>
+    <t>那添加L1和L2正则化有什么用？下面是L1正则化和L2正则化的作用，这些表述可以在很多文章中找到。</t>
+  </si>
+  <si>
+    <t>L1正则化可以产生稀疏权值矩阵，即产生一个稀疏模型，可以用于特征选择(lasso)</t>
+  </si>
+  <si>
+    <t>L2正则化可以防止模型过拟合（overfitting）；一定程度上，L1也可以防止过拟合(岭回归)。</t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>直接求解w^=(XTX)−1Xy</t>
+  </si>
+  <si>
+    <t>(即最小二乘法,又称最小平方法)可能会遇到什么问题？</t>
+  </si>
+  <si>
+    <t>1）只有当矩阵X是满秩的时候，才可以用最小二乘法。也就是多个因变量必须是相互独立的，如果相互之间关联较强，或者样本点比较少的时候，很可能造成X</t>
+  </si>
+  <si>
+    <t>就不是满秩的，因为X−1（x的负1次方）是不可逆的。</t>
+  </si>
+  <si>
+    <t>2）计算大型逆矩阵复杂度高，在处理大规模数据的时候，耗时长。</t>
+  </si>
+  <si>
+    <t>岭回归(Ridge)</t>
+  </si>
+  <si>
+    <t>第一种，</t>
+  </si>
+  <si>
+    <t>“是一种专用于共线性数据分析的有偏估计回归方法，实质上是一种改良的最小二乘估计法，通过放弃最小二乘法的无偏性，以损失部分信息、降低精度为代价获得回归系数更为符合实际、更稳定、更可靠的回归方法，对病态数据的拟合要强于最小二乘法。”</t>
+  </si>
+  <si>
+    <t>从上面这段话我们可以看出，全面理解岭回归需要先弄清楚以下一些关键的问题（概念）：</t>
+  </si>
+  <si>
+    <t>1）什么是共线性数据？</t>
+  </si>
+  <si>
+    <t>2）方程组中方程的个数少于特征个数是不是也是类似的情况？</t>
+  </si>
+  <si>
+    <t>3）病态矩阵是什么？</t>
+  </si>
+  <si>
+    <t>4）什么是有偏估计和无偏估计？</t>
+  </si>
+  <si>
+    <t>5）为什么说放弃无偏性就可以使得模型更可靠？</t>
+  </si>
+  <si>
+    <t>6）怎么样做才能放弃无偏性，提高模型的稳定性？</t>
+  </si>
+  <si>
+    <t>2）欠定方程组的情况</t>
+  </si>
+  <si>
+    <t>第二种，</t>
+  </si>
+  <si>
+    <t>还有一种情况与共线性数据有所不同，也是岭回归适合解决的问题，在这里提一下：当样本点比较少，而特征比较多，特征个数多于样本个数，这时候输入数据的矩阵X</t>
+  </si>
+  <si>
+    <t>是非满秩的，最直白的话就是方程的个数少于未知数，也就是欠定方程组，理论上应该有无穷多解。这时候最小二乘法同样是失效的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso回归和岭回归最重要的区别是，岭回归中随着惩罚项增加时，所以项都会减小，但是仍然保持非0的状态，然而Lasso回归中，随着惩罚项的增加时，越来越多的参数会直接变为0，正是这个优势使得lasso回归容易用作特征的选择（对应参数非0项），因此lasso回归可以说能很好的保留那些具有重要意义的特征而去掉那些那些意义不大甚至毫无意义的特征（如果是超多维的稀疏矩阵，这难道不是在垃圾中寻找黄金的“掘金术”吗？），而岭回归永远不会认为一个特征是毫无意义的。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">作者：jingChenGauss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">原文：https://blog.csdn.net/lc574260570/article/details/81951739 </t>
+  </si>
+  <si>
+    <t>Parameter Estimation</t>
+  </si>
+  <si>
+    <t>CostFunc(LeastSquares)</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>Optimization Approach</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>Ridge Regression / Lasso Regression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>对于每组数据，我们可以用最小二乘法来求得一个线性模型，但对于这个模型的效果如何，如何来比较模型之间的好坏呢。R方就是来处理这个问题，它可以来计算预测值和真实y值的匹配程度，当R方（0~1）越接近1，这线性关系越明显。</t>
+  </si>
+  <si>
+    <t>而在使用的时候要用调整后的R方，这个值是针对自变量的增多会不断增强预测力的一个矫正（因为即使没什么用的自变量，只要多增几个，R方也会变大，调整后的R方是对较多自变量的惩罚），R可以不用管，标准化的情况下R也是自变量和因变量的相关</t>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T检验是对各个回归系数的检验，绝对值越大，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就越小，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验的显著性，在统计学上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sig&lt;0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般被认为是系数检验显著，显著的意思就是你的回归系数的绝对值显著大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，表明自变量可以有效预测因变量的变异，做出这个结论你有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的可能会犯错误，即有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的把握结论正确。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F检验是对所有回归系数的检验，代表你进行回归的所有自变量的回归系数的一个总体检验，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sig&lt;0.05,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明至少有一个自变量能够有效预测因变量，这个在写数据分析结果时一般可以写出。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F检验和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平方同向变化，当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方越大，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值也就越大</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为无穷大。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F检验是所有回归系数的总显著性的度量也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方的显著性检验，即检验回归系数为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等价于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也就是在计算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方后，就不必做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>另外对于一元线性回归，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验等价于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF464646"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验，因为回归系数只有一个。</t>
+    </r>
+  </si>
+  <si>
+    <t>残差平方和（又称误差平方和，SSE，Sum of Squaresfor Error）:因变量的各实际观测值(给定点的Y值)与回归值（回归直线上的Y值）的差的平方和，它是除了x对y的线性影响之外的其他因素对y变化的作用，是不能由回归直线来解释的。</t>
+  </si>
+  <si>
+    <t>这些概念还是有些晦涩，我个人是这么理解的：</t>
+  </si>
+  <si>
+    <t>就拿广告费和销售额的例子来说，其实广告费只是影响销售额的其中一个比较重要的因素，可能还有经济水平、产品质量、客户服务水平等众多难以说清的因素在影响最终的销售额，那么实际的销售额就是众多因素相互作用最终的结果，由于销售额是波动的，所以用上文提到的每个月的销售额与平均销售额的差的平方和（即总平方和）来表示整体的波动情况。</t>
+  </si>
+  <si>
+    <t>回归线只表示广告费一个变量的变化对于总销售额的影响，所以必然会造成偏差，所以才会有实际值和回归值是有差异的，因此回归线只能解释一部分影响</t>
+  </si>
+  <si>
+    <t>那么实际值与回归值的差异，就是除了广告费之外其他无数因素共同作用的结果，是不能用回归线来解释的。</t>
+  </si>
+  <si>
+    <t>因此SST（总偏差）=SSR（回归线可以解释的偏差）+SSE（回归线不能解释的偏差）</t>
+  </si>
+  <si>
+    <t>那么所画回归直线的拟合程度的好坏，其实就是看看这条直线（及X和Y的这个线性关系）能够多大程度上反映（或者说解释）Y值的变化，定义</t>
+  </si>
+  <si>
+    <t>还是回到最开始的广告费和销售额的例子，这个回归线的R^2为0.73，说明拟合程度还凑合。</t>
+  </si>
+  <si>
+    <t>R^2=SSR/SST 或 R^2=1-SSE/SST, R^2的取值在0，1之间，越接近1说明拟合程度越好</t>
+  </si>
+  <si>
+    <t>假如所有的点都在回归线上，说明SSE为0，则R^2=1，意味着Y的变化100%由X的变化引起，没有其他因素会影响Y，回归线能够完全解释Y的变化。如果R^2很低，说明X和Y之间可能不存在线性关系</t>
+  </si>
+  <si>
+    <t>四、相关系数R和判定系数R^2的区别</t>
+  </si>
+  <si>
+    <t>在统计中还有一个类似的概念，叫做相关系数R（这个没有平方，学名是皮尔逊相关系数，因为这不是唯一的一个相关系数，而是最常见最常用的一个），用来表示X和Y作为两个随机变量的线性相关程度，取值范围为【-1，1】。</t>
+  </si>
+  <si>
+    <t>当R=1，说明X和Y完全正相关，即可以用一条直线，把所有样本点（x,y）都串起来，且斜率为正，</t>
+  </si>
+  <si>
+    <t>当R=-1，说明完全负相关，及可以用一条斜率为负的直线把所有点串起来。</t>
+  </si>
+  <si>
+    <t>如果在R=0，则说明X和Y没有线性关系，注意，是没有线性关系，说不定有其他关系。</t>
+  </si>
+  <si>
+    <t>就如同这两个概念的符号表示一样，在数学上可以证明，相关系数R的平方就是判定系数。</t>
+  </si>
+  <si>
+    <t>判定系数R^2来判断回归方程的拟合程度，表示拟合直线能多大程度上反映Y的波动。</t>
+  </si>
+  <si>
+    <t>变量的显著性检验</t>
+  </si>
+  <si>
+    <t>变量的显著性检验的目的：剔除回归系数中不显著的解释变量（也就是X），使得模型更简洁。在一元线性模型中，我们只有有一个自变量X，就是要判断X对Y是否有显著性的影响；多元线性回归中，验证每个Xi自身是否真的对Y有显著的影响，不显著的就应该从模型去掉。</t>
+  </si>
+  <si>
+    <t>变量的显著性检验的思想：用的是纯数理统计中的假设检验的思想。对Xi参数的实际值做一个假设，然后在这个假设成立的情况下，利用已知的样本信息构造一个符合一定分布的（如正态分布、T分布和F分布）的统计量，然后从理论上计算得到这个统计量的概率，如果概率很低（5%以下），根据“小概率事件在一次实验中不可能发生”的统计学基本原理，现在居然发生了！（因为我们的统计量就是根据已知的样本算出来的，这些已知样本就是一次实验）肯定是最开始的假设有问题，所以就可以拒绝最开始的假设，如果概率不低，那就说明假设没问题。</t>
+  </si>
+  <si>
+    <t>其实涉及到数理统计的内容，真的比较难一句话说清楚，我举个不恰当的例子吧：比如有一个口袋里面装了黑白两种颜色的球一共20个，然后你想知道黑白球数量是否一致，那么如果用假设检验的思路就是这样做：首先假设黑白数量一样，然后随机抽取10个球，但是发现10个都是白的，如果最开始假设黑白数量一样是正确的，那么一下抽到10个白的的概率是很小的，但是这么小概率的事情居然发生了，所以我们有理由相信假设错误，黑白的数量应该是不一样的……</t>
+  </si>
+  <si>
+    <t>总之，对于所有的回归模型的软件，最终给出的结果都会有参数的显著性检验，忽略掉难懂的数学，我们只需要理解如下几个结论：</t>
+  </si>
+  <si>
+    <t>T检验用于对某一个自变量Xi对于Y的线性显著性，如果某一个Xi不显著，意味着可以从模型中剔除这个变量，使得模型更简洁。</t>
+  </si>
+  <si>
+    <t>F检验用于对所有的自变量X在整体上看对于Y的线性显著性</t>
+  </si>
+  <si>
+    <r>
+      <t>T检验的结果看P-value，F检验看Significant F值，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般要小于0.05，越小越显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（这个0.05其实是显著性水平，是人为设定的，如果比较严格，可以定成0.01，但是也会带来其他一些问题，不细说了）</t>
+    </r>
+  </si>
+  <si>
+    <t>下图是用EXCEL对广告费和销售额的例子做的回归分析的结果（EXCEL真心是个很强大的工具，用的出神入化一样可以变成超神），可以看出F检验是显著的（Significance F为0.0017），变量X的T检验是显著的（P-value为0.0017），这俩完全一样也好理解，因为我们是一元回归，只有一个自变量X。</t>
+  </si>
+  <si>
+    <t>用Excel做线性回归分析</t>
+  </si>
+  <si>
+    <r>
+      <t>还有一点是intercept（截距,也就是Y=aX+b中的那个b）的T检验没有通过，是不显著的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般来说，只要F检验和关键变量的T检验通过了，模型的预测能力就是OK的。</t>
+    </r>
+  </si>
+  <si>
+    <t>Significant Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1817,6 +3920,96 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="MathJax_Math"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="MathJax_Main"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7.75"/>
+      <color theme="1"/>
+      <name val="MathJax_Math"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7.75"/>
+      <color theme="1"/>
+      <name val="MathJax_Main"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.75"/>
+      <color theme="1"/>
+      <name val="MathJax_Size1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF464646"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF464646"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1840,7 +4033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,6 +4050,24 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -2650,33 +4861,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>618448</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="0"/>
+          <a:ext cx="5419048" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542171</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6172200"/>
+          <a:ext cx="6028571" cy="4200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="随机干扰项mui的方差sigma2的估计"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="随机干扰项mui的方差sigma2的估计"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2714,24 +4996,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="随机干扰项mui的方差sigma2的估计"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="随机干扰项mui的方差sigma2的估计"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2769,24 +5051,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="随机干扰项mui的方差sigma2的估计"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="随机干扰项mui的方差sigma2的估计"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2816,6 +5098,851 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>427886</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5914286" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189790</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>170979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4114800"/>
+          <a:ext cx="5676190" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9009</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>46976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8229600"/>
+          <a:ext cx="4123809" cy="5190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608581</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>37924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13887450"/>
+          <a:ext cx="8152381" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256371</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>161348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15601950"/>
+          <a:ext cx="6428571" cy="4619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323038</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>9031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20402550"/>
+          <a:ext cx="6495238" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>170571</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>66088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24860250"/>
+          <a:ext cx="7028571" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>684943</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>132819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30175200"/>
+          <a:ext cx="6857143" cy="4247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46762</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>56564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34804350"/>
+          <a:ext cx="6904762" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560918</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>75376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="8457143" cy="6590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18318</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11315700"/>
+          <a:ext cx="5857143" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408667</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>18494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1743075"/>
+          <a:ext cx="7266667" cy="4447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370743</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5857143" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>265895</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>84900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6686550"/>
+          <a:ext cx="6438095" cy="6600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>218019</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="1714500"/>
+          <a:ext cx="8447619" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>656457</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>151631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13716000"/>
+          <a:ext cx="6142857" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://upload-images.jianshu.io/upload_images/934124-df2a39bb495bcf6d.png?imageMogr2/auto-orient/strip"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6667500"/>
+          <a:ext cx="7000875" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>456714</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133248</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4972050"/>
+          <a:ext cx="3885714" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8581</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>132455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6572250"/>
+          <a:ext cx="7552381" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46676</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7590476" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18105</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4800600"/>
+          <a:ext cx="7561905" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3110,34 +6237,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C6"/>
+  <dimension ref="B5:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3145,86 +6400,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3238,87 +6493,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" ht="16.5">
+      <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+    <row r="49" spans="1:1" ht="16.5">
+      <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1" t="s">
-        <v>30</v>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75">
+      <c r="A87" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75">
+      <c r="A88" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15">
+      <c r="A94" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15">
+      <c r="A100" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15">
+      <c r="A106" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3330,121 +6660,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="60" spans="1:1" ht="18">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18">
+      <c r="A61" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18">
+      <c r="A62" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3456,64 +6779,582 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="K2:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>56</v>
+    <row r="2" spans="11:11">
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="11:11">
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="24.75">
+      <c r="A13" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5">
+      <c r="A15" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.5">
+      <c r="A17" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5">
+      <c r="A19" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.5">
+      <c r="A21" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="16.5">
+      <c r="A23" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="16.5">
+      <c r="A25" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="16.5">
+      <c r="A27" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.5">
+      <c r="A29" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" ht="16.5">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:1" ht="16.5">
+      <c r="A32" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20.25">
+      <c r="A34" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>